--- a/biology/Botanique/Curtia_tenuifolia/Curtia_tenuifolia.xlsx
+++ b/biology/Botanique/Curtia_tenuifolia/Curtia_tenuifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curtia tenuifolia est une  espèce de plante herbacée, néotropicale, appartenant à la famille des Gentianaceae.
-On l'appelle en Guyane centaurelle violette[3].
+On l'appelle en Guyane centaurelle violette.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Curtia tenuifolia est une plante herbacée atteignant jusqu'à 60 cm de haut. 
 Les ramifications sont quelque peu quadrangulaires. 
@@ -528,7 +542,7 @@
 Le filets est long de 0,4-1,6 mm, les anthères de forme oblongue, longues de 0,6-1,5 mm, le connectif prolongé au-dessus des thèques, obtus à apiculé.
 Le pistil est long de 3-7 mm, l'ovaire étroitement ovoïde, le stigmate de forme oblongue long de 0,6-1,8 mm, à 2 lobes ou lobes cohérents, papilleux. 
 Le fruit étroitement ovoïde est long de 5-11 mm (y compris le style-stigmate persistant)
-Les graines sont globuleuses à coniques, irrégulières, mesurant 0,1 mm[4].
+Les graines sont globuleuses à coniques, irrégulières, mesurant 0,1 mm.
 </t>
         </is>
       </c>
@@ -557,10 +571,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Curtia tenuifolia dans toute l'Amérique du Sud tropicale[4] : du Guatemala, à l'Argentine, en passant par le Honduras, le Panama, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, toutes les régions du Brésil, le Paraguay, et l'Uruguay
-[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Curtia tenuifolia dans toute l'Amérique du Sud tropicale : du Guatemala, à l'Argentine, en passant par le Honduras, le Panama, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, toutes les régions du Brésil, le Paraguay, et l'Uruguay
+.
 </t>
         </is>
       </c>
@@ -589,15 +605,17 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Curtia tenuifolia pousse dans les végétations ouvertes ou arbustives de type cerrado[6],[7],[8], et les savanes humides sur sable blanc, jusqu'à 1 600 m d'altitude. Elle fleurit et fructifie toute l'année[4],[5],[9],[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Curtia tenuifolia pousse dans les végétations ouvertes ou arbustives de type cerrado et les savanes humides sur sable blanc, jusqu'à 1 600 m d'altitude. Elle fleurit et fructifie toute l'année.
 Plusieurs aspects de Curtia tenuifolia ont été étudiés :
-la structure de l'enveloppe de la graine et la complexité de l'espèce[11]
-ses caractéristiques anatomiques[12]
-son absence d'orbicules[13]
-son pollen[14]
-sa phylogénie[15]</t>
+la structure de l'enveloppe de la graine et la complexité de l'espèce
+ses caractéristiques anatomiques
+son absence d'orbicules
+son pollen
+sa phylogénie</t>
         </is>
       </c>
     </row>
@@ -625,10 +643,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1897, Heckel rapporte sur Curtia tenuifolia : « Amer, fébrifuge: très employée. »[3],[16].
-Elle contient des glucosides d'iridoïdes[17], notamment de la 7-O-p-coumaroyl-loganine[18],[19].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1897, Heckel rapporte sur Curtia tenuifolia : « Amer, fébrifuge: très employée. »,.
+Elle contient des glucosides d'iridoïdes, notamment de la 7-O-p-coumaroyl-loganine,.
 </t>
         </is>
       </c>
@@ -657,9 +677,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé décrite pour la première fois Curtia tenuifolia sous le nom de Exacum tenuifolium et en a proposé le protologue suivant[20] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé décrite pour la première fois Curtia tenuifolia sous le nom de Exacum tenuifolium et en a proposé le protologue suivant : 
 « 2. EXACUM (tenuifolium) foliis linearibus ; floribus violaceis. (Tabula 16. fig. 2.) 
 Planta annua, quæ differt a præcedenti, caule tcnuiori ; foliis minimis, auguſtiſſimis, floribus minoribus, corolla violacea; lobis, limbis acutis ; filamentis ſtaminum tubo longioribus &amp; æqualibus.
 Hæ duæ ſpecies guſtu amaræ ſunt.
